--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -122,24 +122,12 @@
     <t>Thời gian dự kiến</t>
   </si>
   <si>
-    <t>24/03/2016 
-- 30/03/2017</t>
-  </si>
-  <si>
     <t>10/03/2016
  - 16/03/2016</t>
   </si>
   <si>
     <t>17/03/2016 
 - 23/03/2016</t>
-  </si>
-  <si>
-    <t>17/03/2016 
-- 23/03/2017</t>
-  </si>
-  <si>
-    <t>24/03/2016 
-- 30/03/2018</t>
   </si>
   <si>
     <t>Thời gian còn lại</t>
@@ -150,12 +138,33 @@
   <si>
     <t>tôi thấy được những cải tiến và hạn chế của quy trình cũ</t>
   </si>
+  <si>
+    <t>thấy một poster thật ấn tượng</t>
+  </si>
+  <si>
+    <t>tôi có thể rút ra thông tin tổng quát của đồ án</t>
+  </si>
+  <si>
+    <t>có một poster hoàn chỉnh, truyền tải đủ nội dung</t>
+  </si>
+  <si>
+    <t>31/03/2016 
+- 07/04/2016</t>
+  </si>
+  <si>
+    <t>24/03/2016 
+- 30/03/2016</t>
+  </si>
+  <si>
+    <t>08/04/2016
+- 15/04/2016</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -206,6 +215,12 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -275,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -319,11 +334,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FF7F7F7F"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FF7F7F7F"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -370,9 +425,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12018078308931802"/>
-          <c:y val="0.15416939381317912"/>
-          <c:w val="0.84582022033975646"/>
-          <c:h val="0.74499375235526333"/>
+          <c:y val="0.15416939381317918"/>
+          <c:w val="0.84582022033975668"/>
+          <c:h val="0.74499375235526344"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -516,11 +571,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="125560320"/>
-        <c:axId val="125562240"/>
+        <c:axId val="100529664"/>
+        <c:axId val="100531584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125560320"/>
+        <c:axId val="100529664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,13 +608,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125562240"/>
+        <c:crossAx val="100531584"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125562240"/>
+        <c:axId val="100531584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125560320"/>
+        <c:crossAx val="100529664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -620,7 +675,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -946,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -989,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -1015,8 +1070,8 @@
       <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>35</v>
+      <c r="G2" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -1040,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -1049,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -1082,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -1114,8 +1169,8 @@
       <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
+      <c r="G5" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -1147,8 +1202,8 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
+      <c r="G6" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -1180,8 +1235,8 @@
       <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>39</v>
+      <c r="G7" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -1194,13 +1249,47 @@
         <v>Là một người sử dụng website tôi muốn có một cái nhìn tổng quan về vấn đề để tôi có thể đưa ra quyết định chính xác</v>
       </c>
     </row>
+    <row r="8" spans="1:10" ht="24.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="28">
+        <v>6</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f>"Là một " &amp; Translate!$B8 &amp; " tôi muốn " &amp; Translate!$C8 &amp; " để " &amp; Translate!$D8</f>
+        <v>Là một người sử dụng website tôi muốn thấy một poster thật ấn tượng để tôi có thể rút ra thông tin tổng quát của đồ án</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A2 B1:B7 C1:D2 E1:H7 A4:A6 C5:D6">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A1:A2 C1:D2 E1:H7 A4:A6 C5:D6 B1:B8 E8">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
